--- a/data/trans_camb/P14_x_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Estudios-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,06</t>
+          <t>3,83; 7,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,22</t>
+          <t>8,41; 13,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,28</t>
+          <t>14,5; 19,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,64; 21,86</t>
+          <t>17,63; 21,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 13,53</t>
+          <t>10,32; 13,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 17,91</t>
+          <t>14,57; 17,8</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,74</t>
+          <t>2,23; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,5</t>
+          <t>4,4; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,08</t>
+          <t>7,52; 10,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,06</t>
+          <t>8,96; 12,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 6,59</t>
+          <t>5,08; 6,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,97</t>
+          <t>7,1; 8,9</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,7</t>
+          <t>0,93; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,39</t>
+          <t>3,63; 7,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,16</t>
+          <t>1,76; 5,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,1</t>
+          <t>5,48; 9,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,87</t>
+          <t>1,6; 3,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,67</t>
+          <t>5,09; 7,59</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,02</t>
+          <t>2,69; 3,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,18</t>
+          <t>5,3; 7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 11,26</t>
+          <t>9,09; 11,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,94</t>
+          <t>10,77; 13,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,44</t>
+          <t>6,22; 7,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 9,93</t>
+          <t>8,61; 9,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_x_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,11</t>
+          <t>3,71; 6,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,72</t>
+          <t>14,5; 19,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 13,47</t>
+          <t>10,37; 13,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,69</t>
+          <t>2,22; 3,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,17</t>
+          <t>7,27; 10,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,59</t>
+          <t>5,05; 6,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,55</t>
+          <t>0,85; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,1</t>
+          <t>1,8; 5,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,79</t>
+          <t>1,67; 3,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,96</t>
+          <t>2,69; 3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 11,21</t>
+          <t>9,12; 11,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,48</t>
+          <t>6,15; 7,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
